--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/37_Hatay_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/37_Hatay_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8ADB0C6-C2C7-4B6A-AD5A-3E49467E1E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11C1FDE3-8199-4DC9-97DC-AAEC802481AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{BF8E304A-E4DE-4A11-86C7-0E540A74E268}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{0EA38E71-A770-4229-B679-767E166E2061}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{50CEF325-E0FA-4506-92CC-7CF6EE6BB026}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7D129598-13FB-4751-B625-B4C4A3B8F37C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8CAA422D-B7EB-42BD-93E8-F445ECA0D195}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AE8CA2A9-B8EA-47FC-9AC4-EC118EB9E8D9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F03CC4F6-53E4-4F0F-A9E0-52B153DB7F75}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{00E1EB60-B5F1-4EDD-A3F4-62CD48FC6BF4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CC694293-61F4-4EF2-A404-1BB3C1DF979D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{390C6172-CAE3-4DC4-A498-5B22EB272140}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{45ACD60F-9F50-4BA9-9827-2607A2015EA1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{2070FACA-9986-443D-B38E-C6109DC43FDF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6B62DF8F-12A4-416F-B72D-87E552842979}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{25D267E1-D140-4921-AF28-C2D99EF22B56}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{8485735A-21D8-4A0A-8D8C-A37F1C0DEE59}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{88D078A6-DD64-4DD7-907B-B7677FEA24A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DA1F07-54E9-49EF-B165-16A9384E3E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C782C1D5-BA09-48F5-8F7A-C007D92DFA0D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2586,18 +2586,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15320603-0C0D-462F-83BD-449D9B9D98B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF781834-CFBB-47BF-ABA3-E0CEE6615B4D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9679E436-E87D-4C5B-BE44-D807C29219C1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BFB6C0D2-FF4F-4EA4-875B-BF936A142C0F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{686BA175-862F-409A-84D4-0AC7F856C2F6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{305A44C8-B732-44D8-B463-594D06602E3B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6EEE7DBF-9FD1-45D6-807A-D9F6EC34B7F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A2074988-9E03-4D42-B6B9-CE57B841DC1F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB48B594-0DC9-4F89-8DC2-2FA6E80A1975}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F932373B-79DF-4971-A99D-6EB8D46805F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5540C3DD-79C7-48D5-8DFA-490B82ED1330}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88D22AB1-CFE9-4C0A-A13A-A42BFF071304}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A91DCB4D-7039-41DC-8086-CFF7EFE9C45D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EE80D24-2419-4604-B812-592F33AF12BD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1A1ED32-8DA4-43EA-BD08-5B1497297A78}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CF3241CA-F69D-4CC2-AE30-11C8944AB656}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5597BDB3-6E10-4C9C-AD07-A64CC6D8D245}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC3A5183-342E-41B8-B215-57798125CE1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B47D3A90-6649-4229-BDC5-AC3C5167EAAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3AAFDE7-E41E-4C09-9E46-27628D1637FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFB4A18A-840D-4CCD-B080-D9D51B9DF0AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2730E7A6-3F9E-4F25-854F-1A56D75C3B0B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD57E17A-7BCF-4490-894B-7DC5279A22D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96CE2EA1-6615-4120-B7D1-278FF508AE23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2610,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102DFD39-DE78-4D3E-95FA-F6CA927A5404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1FE4E-A0C3-4805-BD0D-15916CAF5E96}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3862,18 +3862,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B4DFF88-C6FE-4B53-A43A-1D78DB107ADE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EE52F24-8C9B-45B8-94A0-0501B28D3517}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6E341919-6C84-41F5-A45D-E19DF84A83C7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B56DAA4C-6F2E-4DA7-8568-0C37850EAD38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28EB494A-37CB-4788-812A-C368F7B57208}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8EF30CB9-EF49-4168-9C89-4CC8A1C097C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7F5FE7C-355B-47AE-852F-DCAADE81FB75}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA2C37B1-6C38-4676-8120-AEE24F2CCACE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F27764FD-E630-48CC-ADAA-2D79B7A83D77}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9246EAB-9D96-4D6C-A230-1621E795E9EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{714C8891-1E23-4008-BF2F-49113F009AFC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F6F06FD-B996-4148-B5A6-6C1DB81A6545}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{051D6B4A-AC37-4404-B94E-F4EAFE452C55}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B72947F-D420-4123-9DF7-0110746F8E62}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FDE36559-94AD-4AD8-AF08-B45BAD9F6369}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2F133B24-9903-44ED-A63B-099668E5535D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E48A1A66-4BA4-4103-B013-59DD51C93F30}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{36D58DC6-1F07-4153-8830-38F6A9C01B7F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0874562C-F8A1-469B-AE04-197C2FC01791}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B025C9AD-0517-4BE3-BF21-BA442746EB03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7117BC4-BDBE-49EF-B3AD-A825D9009911}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6D4215D-4A1D-4362-BA44-793319F9F479}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8210D96D-0710-4908-99C4-C8B9011534CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7218E2CC-CE5E-4E10-B95B-232B1BE396F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3886,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E5F93-F278-42E3-9C2E-DA60ED2AA7AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2067EB43-DA03-4564-8BC9-64E2C2C6AC7A}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5134,18 +5134,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACD92B7C-5A7F-44A5-BB3C-80F50701E14F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{524F377A-7730-4867-A9F0-8DDE992566B4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6C78D763-524C-4FF8-93D3-B4D769549D6B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6621121C-FF90-4CAB-8AC3-1EA77F71BCA6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{183C8EDF-1813-478F-9CC0-9E032A640B63}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F24ABE91-47E4-4B2E-B194-CF855ADAEB8F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C607FCB-54FB-484B-94A0-C3A95E65AC64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB23C93A-1387-4DFD-A357-C08A9200B5F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{27B0F864-459D-462E-828A-D2045A9B4AB6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3665DB2-6504-4CCE-B6C2-601AC5A5E33C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75D1D4AC-D761-4E53-BA38-6017811CC90E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1938ACF4-2194-48EE-A371-CE3333DC6CC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F2CC280F-907A-48E1-975A-84665B5E5658}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{589C3D7D-4413-4C8E-B38C-842AFAE0EFC8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69F158C6-F398-4DD4-B5F3-264D16A0BD07}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F88BC475-DBF4-4025-892E-D1DD626931B5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B96450D6-792D-45F1-9369-47C297E2B190}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC6E9AB3-DB36-4128-B5DB-6DC5629174D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8033EE52-245F-4E26-BA04-82730E80A663}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05F51E8D-3005-4D29-AA63-CD4FFB0BFC6B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED6C16A6-E798-4994-9B72-7A094E359A2A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5FE6E2EF-F8B2-402A-9718-9DB46DC348D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B665AB96-7539-4BB3-B7FA-8DCA378FB3B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0DB89EA-EF79-44F0-9871-3F5FE35673A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5158,7 +5158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DD763C-9289-4F3C-BCED-6152E3832933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97984C6C-C822-47BC-97B8-FC535BBA6FCB}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6406,18 +6406,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87FFA297-0075-468D-AFB4-005E91224A93}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DA0F76C-6D2E-493C-A80C-52F3983B4967}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3C17425-7CBD-4D73-BF73-1678E0EE9EB7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{30B2AD6B-1630-4EEA-B989-DD638EBAB0EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8D23CAD-D777-4C63-8B6D-322BE9703C05}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6308A721-AA51-4C69-8017-8A4BE1E193AD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6DE2D00-CC5A-4D48-A76C-225C7D7DEBCA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C81C69EE-42BA-4168-91F8-13562F217D88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{733C4DE3-9330-4A56-86E0-1D2F662EE53C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED025A86-1CF5-426C-95C7-0E011D057C14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FA45A19-EB26-4B1B-B2FF-3201A975B832}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1AC21B2-A070-4603-8AE6-787D422421F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21F189FB-2473-4937-AB8A-544DEC5F4E6D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6671AC4C-E15D-484E-BBEB-5981F0243125}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{51C1C2D2-78B3-403F-8B8A-CC52C8A2D1DC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{43A05E9B-2C51-43A0-8DDF-49CEB30C3A2F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{347CB147-61C3-4957-85B4-6A0351BE06AB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5A8F9A62-4E14-41BB-A834-1E81CAB92D65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F746EF4A-DEE4-4648-9BC5-5844EA70025F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AFF5088-736C-4EE8-AB83-4423F94FE506}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6FBAA648-69E2-42AE-9C78-BE9E3723266D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F822887-E51C-48C2-9EAF-265B07F0D726}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DED6839-1C6B-4197-B61F-E33C2716A764}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE616416-8977-4186-AF49-5495B631BDDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6430,7 +6430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F46319-DB62-4094-B5E5-ADF196BC37C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA1494E-2904-4F23-8ECE-5BB696DFA5C7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7699,18 +7699,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E844E3A-7214-4111-A2F1-D46DBE88CB9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49EACEF3-8E66-4FEB-A8E9-BEB4D6B92CCC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CF151806-83F4-4F4E-BBBD-7B7136529D73}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{03F334A9-028E-45F2-B607-E9B03C758116}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55507EE6-9E0E-4D50-A67F-B2ACDF0B8FEE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4B40FEAE-3304-4C3B-8937-2086DFD2C250}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4348DF8F-C58E-4DE1-B721-EA66E5115D01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2729D856-0358-4749-A9C0-F7F7B70A881F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{393A1EBC-A225-45C3-814F-5584184807FD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C4822B6-B8FC-4D07-AECC-E8BB72D23DE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6BCB851-8351-4A46-80DC-771B6A9D23FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4CBF85F-ABAF-4573-8DA0-B9E1A9F49AFE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F41AB52-79DF-4F21-BD77-47D29C903937}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13576578-3446-4905-B881-17C7EBFF9FF0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AD113475-BF64-4030-8E3A-A527998902BE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{867FC4FA-2C2C-4318-BDA5-ECB525B66C44}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F3B4D6C1-D334-46DD-BF11-EA245E2EEF4D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A94034EE-A26B-41B3-A018-7A37FD1A3F15}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{500F8D64-E94C-433A-B7D8-694052485B9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99A02CC2-5D53-4435-9B72-21D97153D6EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF61DBCD-C3C0-41B9-914A-6F617EAB965B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67F3A4A1-28B9-4EC2-B1C6-5F22F592B7A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3BB6044-71DF-4D08-A78F-25A805CF549A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{20ECFB79-5A04-4A25-AF83-464D6E26D338}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7723,7 +7723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F850CB-7445-4189-B7AB-4F1F07D44442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3311F17-7CE3-45A9-9039-4D250FBF5080}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8992,18 +8992,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{290B8B96-47FA-4E0B-9DDA-70AF1561E50D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAA9ACA3-9553-4117-89FD-8B6438F97A37}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C303235-775A-4781-8132-A4B99BEB97AC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B675FF30-448C-489A-8DCA-40DE3D2005C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{632C2AE0-FB56-4964-872A-1477FA5945C1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7D0C4490-ECE9-42BE-ADF2-BBAB86DE5916}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58FBBAF7-27F6-42EE-9539-7732201185D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E429F4E6-5DC2-4E2F-85D3-EDD8AC1111BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90D2949A-B732-4339-A221-66D56F50ECFE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{183B0190-DA0D-45E7-9527-3B4C0182489E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A7EEA38-D467-4B8E-8AA5-D45156B0B3DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED397078-03A0-43B2-8006-AA9BA99FDF61}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5142DDBA-0CAD-4FE0-B8C7-39350A8A8D9B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7DCC732-92B0-48FB-AF36-CEE407CAD23F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{04328808-3042-48AB-A8FE-DA637F8AA6B5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E8041696-CA69-4BA7-ADD3-04898276A433}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8148CDE4-D95A-4694-B2C1-4FC46F68A9FC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9152975B-AE25-4DE5-B427-2100A0D1D8A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DCC427A-E224-4641-B33A-17D01E8EFD0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22D2E03C-32B1-46C8-8C65-8EDC8A2D7202}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4EC6BDE4-0CBB-45F5-984E-C5BD7A8DBD7A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{678F0477-46E7-434E-A37B-1CA2551D0AAD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E3AA1DF-35BA-4D87-A2C9-EBDE38E0FE20}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E300E9C2-D1A7-40D3-9068-343E13AC4073}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9016,7 +9016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373555FC-1949-490C-BB4A-6507625B2BF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8631DDAA-3694-4D85-ADAE-4309DA2FB648}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10281,18 +10281,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5FA97F7-69AC-4587-891B-4BA9A7F297F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C0E71D6-1A8B-45F5-82CC-792504A45705}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1CB0B217-0092-403B-9AE1-AF766FD073A5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75AE97F5-BB92-449F-A191-D525FD25A2F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E7620F03-33A5-4B5F-A089-AB458F375179}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BEA5D2E1-7810-4AE6-90CB-12471796580F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3A9E85F2-652E-48EB-B06C-4A68D0C056C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5903A90E-FE87-4C0D-B2EF-50F5322676D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F179E85-CAB7-4056-BE7C-662907B35998}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3294E055-936A-4206-9CCE-881AF76737B7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9AF164B-5957-4A17-880E-D3912E08A4FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53B77168-5310-4971-98E9-9E8E2CFE728C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82812F4B-9B4E-4A84-806F-9BF3E58F5036}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{011815C2-2132-4659-A7BF-ACDF0BACF6BA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B9B86A0-019E-48CB-BC04-667460C06A24}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7D4FB04D-DA79-4578-94CD-105E71DA9329}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58EC0D23-4FC7-4139-AE2E-EF32E5499C6C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E08CA69-BCD4-41F5-AD3C-464F57D4338A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E10D237-FBE5-4A8D-9BAB-4852616FB732}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C92F763C-1B15-43FA-AA83-79C2800A07FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89E420E0-49C6-4AD5-B347-9A57F533A7C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1758CB0B-1241-404E-AF54-F0A9D8F747F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F2C0FEB-33DC-4361-8951-44D4D5651CEE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9386A2FB-BCC8-4C26-803F-37BD4D466E6B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10305,7 +10305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C317CCD-1D45-4C23-83D6-B9FEAE057EEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BCBA04-E987-4C0B-AE37-046970206770}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11571,18 +11571,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFF4A00C-9F89-4C20-8498-44F0B66531DA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9FDD621C-8D56-463D-8E31-2FA6811316D2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{32210992-FDE6-4EB9-BFDD-EBD53D2F1554}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58EE7B98-42F7-4B07-B5BE-C230A597CA39}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DF12285-95DE-4228-BA31-4F6B5FCD4942}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9AF8BA9F-2C1F-4BEE-91FF-DCDF472605E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EA99CFB-1BD4-4325-A8EA-662A71FDC862}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A24101E2-AF8B-40A4-B5C9-7E3C5DD91BD1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C91AE148-D8BD-4E92-8F78-EA5ECC4660C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D561517B-9E24-4DE9-9FE1-0C7E5F845DC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54EB31C1-16AB-448E-8F56-31E8CFA04E86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEA535FA-D2C1-4007-8DDE-5F1439119133}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8D8A07E-63E5-4D61-A19E-5F7FAFFCBF2B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57CB1164-5402-42CF-9630-2697672668C6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7D044A64-2519-419A-BAC2-E3767EB5078A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D6EBB2BF-3942-4164-9DFF-1B0615E3888C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{374D4624-2F8A-4BC2-9F7B-5469591DE76D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3326B825-3991-4E2F-9AB0-CCAB6BCEDBA8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{663B038F-0CD1-4C1F-A2DB-D12C69E9691C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86DB42BE-C4E8-4CF1-B3D1-CCF4C59F029D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1A88D5D-ACE9-400A-B5F3-22000716EC31}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3E27FA4-CD4D-4C36-A137-6FEB8629F9BE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB90DB59-C0CE-41A3-B29D-DEE2C983D43E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{444E050C-AAF0-41E6-B270-A0353CBABD26}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11595,7 +11595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4FE421-89A6-4EDE-9538-E065034BF8ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030E6EF1-AE27-4E7E-9D32-E7EE6E391FAA}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12857,18 +12857,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6349E53-B490-406F-8B63-B0BDADD8F2C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E86103B6-63FA-467B-9227-FD9BF4BB8790}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F05F54E5-0380-43CC-949D-497E49B2B696}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD5CA7CA-2894-41F7-8EBD-A14152D9C09C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{125363A8-8A03-4CA4-B4B8-5A8C2CFBAA45}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{37182173-351D-4D25-95FA-B04BD3887D52}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E2EEA255-4778-4A61-83F4-7C8E461D124C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31EF4336-D530-43AF-B3B0-AC28A8E8AD9A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D46A738-69AB-4675-8239-51B322AA96F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0F36DEE-4B42-4BE5-90C1-7BB43C4BBECC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F007411-60F2-4CE4-A5F0-399860271431}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81C86C35-6748-4D8F-BF6A-B3BC2FD909DD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{727BC582-2ABE-4E63-8950-8A5A74FA5E54}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{094FF100-66D3-4C82-9939-403E2FE7781A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FCC2468C-416B-4F68-9A65-D135BF3A9FCC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5585E4B9-42EB-4532-9BB1-59948464728E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4CA32A1-0784-4034-9295-3A59C20BA6C9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1ED34A09-96AF-4FB1-978F-F6C5FFFFC423}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AD6B9B9-5A6C-42EA-AA6B-833A5EFC2067}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6721C832-6F25-429B-BF40-FED956E91905}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3A68B7B-FC1A-4ED6-85BE-9F01B50005FC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{171F322F-B49F-497A-881A-F2B416869DAE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08F7ADD9-D6AD-4F64-A503-C58F09A9FB36}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9EC3DD3-014F-4545-9B69-F8621D0AEA1A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12881,7 +12881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431BD9AF-8580-41BB-8D7D-AB147628907E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEACA79D-F25B-4826-B2E1-CDBA5E2B50AE}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14143,18 +14143,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{913D0229-29C3-478B-AFE3-6D49EBA26588}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62F07449-2207-458A-B770-862582C16827}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{02AA41D5-C291-488F-91F3-5CC9F224B3E1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2BDA1579-E552-456B-9C55-4FE73C57A1F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9615D2E6-E12F-4700-8FE5-868E849D77D2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5EB5FE3F-A566-4C76-91EF-A38A1A7DA961}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D116F18-8F18-4B4C-AE34-BB7F455107AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6074611C-9560-4BDF-9442-C8BB395B176E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C58B35A-5FE5-4AF3-A5ED-83D8064301AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{04C30DDE-E992-4F96-946E-7E37EFCFB137}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92BFF6E9-C5FE-4FA9-836E-C797C70B8F6A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F763E16-EC2B-4706-A60A-64AC5B587024}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01887615-3116-44C6-A743-312CAEB894D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6AA9584-43EA-4988-B454-962D01B6FA8F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB049E54-42F8-4CD8-9814-3894DC0F7C80}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE252D62-4761-41C9-9231-84D1C7206218}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C227FEA-FF8B-4C87-8872-61E2C580F3D1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9B65DDAB-93EF-4FEC-ACB0-C72898BCCCB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E554E3CE-D911-4266-BF45-F95FE56039DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69A3F42C-359E-4A8A-845F-A1222E9C5F48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{767E3608-06BC-429B-9EAF-4BF735B04F32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7397C880-5F42-4D07-B2C8-E6D3CEB2EE08}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7B1E3EB-6D4A-49C3-A49F-9093F0274DEE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16B8D494-EE79-4E83-9E5C-D7C10B64ACD6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14167,7 +14167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D0EC29-02E6-4595-B8DE-357F347548C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C17768-C9CA-4F71-BA2E-B08B3E129A71}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15429,18 +15429,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17917421-6E04-4DCE-AD59-C5E12F3E5F06}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F69CFB4-CFB0-4776-8BD7-BE95FBF4CB1E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{54A3A847-54B9-4CBE-8461-DEFBB4B12CFD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BE5F941-39A2-4065-87E2-69269FCAFF6B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7C20E5E-E81E-47C4-836F-63CA58F026CE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F57EFB7-752E-4D44-951F-7F1702312ABF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{582DB6F4-9463-4F76-A21A-8B85B80F3A7A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F32E1E3E-450E-4707-8A2A-FD8AAEB552AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F23E8B69-2D5F-4701-BFD9-7F62DB4B79DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5D9972B3-4AA8-4C5E-B34D-09BBD442BFA4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{88F01B86-DDBA-422E-AE59-3304EC217970}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{244FE49A-EEC0-44B2-8E59-CBD8E33789C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B69E038-7D80-4A8A-8244-CA4294866833}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2780E2D-661C-41DC-9173-BE587D98AB88}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23F8C840-E30E-4B35-AE81-5FD52CDD19F8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AA4440F6-ED81-4923-9C2E-18160CE468B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{339C4A26-A063-49DB-8BBB-541D8555D0B4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5C02D320-CAE5-4C4C-8554-5DB51EAA948C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF0964D0-9C32-49D9-9BAB-CEC88560A18B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDDABC8A-0697-4F97-BC78-B70D873FBE71}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11A2724A-C331-4B13-9F0E-9FB5F7651D0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4753DC22-3117-4DAE-AECB-71C82F592E46}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6DD87B6-78BE-4167-9DBB-ED1D60AF20AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3997F725-6E69-431A-AABD-516458C90431}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15453,7 +15453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02D024E-FE7F-4F66-8E27-B2E28997434E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048CB15D-1341-4864-ADB2-FB2D2A161EA6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16715,18 +16715,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5973C1B-4157-4A3A-A25D-09D2D63166B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9341589-0AAD-45AF-B63C-58C9E8370777}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BC87FFD8-56CC-4AF9-9162-33DEFF280E64}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8712500D-2063-4F3F-B534-D9EA02F5EB35}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC3E07D2-6622-4411-A3EA-6FC4BF0F902F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8686E699-1D87-432C-8DA2-35DE31D91084}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25088ADF-8BB1-4BB2-AE1C-0A3D4B85C79E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2987F5E6-90B6-4C5F-989E-35E20DDD1443}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7C0938A-2CFB-44C0-A6EF-20B79C9D1106}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0658FCC8-6B09-436E-9E5B-B3B9D6F5F445}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B1739A6-0B17-4558-98C3-2507DDC9DB37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D86D28A0-85AB-4D9E-9404-38CB7CE79B76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D5F36E0-1502-4A33-97BF-824B58D5F9F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28A25F83-BA24-4C81-B78D-EE4B5995A629}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{364A2D10-1DD5-46C8-AB32-5CF3D9A75D10}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C8C8827-09F3-4205-821E-1AC108BB0AD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04448E1E-0222-41AD-B3CF-13CFACC5E700}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{40E4ED61-26EA-44C5-81E2-9C77FEFA3496}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0ADF0B40-A442-45D4-99E4-A0A010D80972}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A628769-A4F6-4AB5-ABB9-9AEE20667596}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68B8C53D-7BAB-4198-855C-B35F78747A1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1BB7EE67-E921-4DB7-9716-1ED1CED213D2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BF201B2-698B-4E46-9219-3BA5BAEA2AB4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED10FF10-A6CE-4DDE-B688-6947505D3885}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
